--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F59AC9E-9D42-4095-A386-EE6674261665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9960" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Iteración" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="81">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -243,12 +249,33 @@
   </si>
   <si>
     <t>En Progreso</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo </t>
+  </si>
+  <si>
+    <t>Roberto Gonzalez, Renzo Espeleta , Manuel Torres</t>
+  </si>
+  <si>
+    <t>Roberto Gonzalez,Renzo Espeleta</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Roberto Gonzalez,Renzo Espeleta,Manuel Torres</t>
+  </si>
+  <si>
+    <t>Presentación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -449,7 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -623,6 +650,33 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -964,27 +1018,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="38.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.58203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="17" customWidth="1"/>
     <col min="3" max="4" width="15.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="36" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18.5">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>8</v>
@@ -1252,7 +1306,9 @@
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="26" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1323,9 @@
       <c r="A19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="26" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1438,9 @@
       <c r="F25" s="56">
         <v>43758</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="61">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="57" t="s">
@@ -1444,7 +1504,7 @@
       <c r="F29" s="44"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" ht="31.5">
+    <row r="30" spans="1:7" ht="31">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
@@ -1467,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.5">
+    <row r="31" spans="1:7" ht="31">
       <c r="A31" s="60" t="s">
         <v>38</v>
       </c>
@@ -1490,7 +1550,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.5">
+    <row r="32" spans="1:7" ht="31">
       <c r="A32" s="60" t="s">
         <v>39</v>
       </c>
@@ -1513,7 +1573,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.5">
+    <row r="33" spans="1:7" ht="31">
       <c r="A33" s="60" t="s">
         <v>40</v>
       </c>
@@ -1534,11 +1594,13 @@
       </c>
       <c r="G33" s="52"/>
     </row>
-    <row r="34" spans="1:7" ht="31.5">
+    <row r="34" spans="1:7" ht="31">
       <c r="A34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C34" s="26" t="s">
         <v>8</v>
       </c>
@@ -1547,13 +1609,17 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="43"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" ht="31.5">
+      <c r="G34" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="31">
       <c r="A35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C35" s="26" t="s">
         <v>8</v>
       </c>
@@ -1594,28 +1660,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="38.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.58203125" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="17" customWidth="1"/>
     <col min="3" max="4" width="15.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="36" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7" ht="18.5">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1624,7 +1690,7 @@
     </row>
     <row r="4" spans="1:7" hidden="1"/>
     <row r="5" spans="1:7" ht="22.15" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1647,7 +1713,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="19"/>
@@ -1658,7 +1724,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="19"/>
@@ -1669,121 +1735,175 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="C8" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="39">
+        <v>43759</v>
+      </c>
+      <c r="F8" s="43">
+        <v>43764</v>
+      </c>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="39">
+        <v>43753</v>
+      </c>
+      <c r="F9" s="43">
+        <v>43764</v>
+      </c>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C10" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="43"/>
+      <c r="E10" s="39">
+        <v>43757</v>
+      </c>
+      <c r="F10" s="43">
+        <v>43765</v>
+      </c>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="43"/>
+      <c r="E11" s="39">
+        <v>43759</v>
+      </c>
+      <c r="F11" s="43">
+        <v>43766</v>
+      </c>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="43"/>
+      <c r="E12" s="39">
+        <v>43766</v>
+      </c>
+      <c r="F12" s="43">
+        <v>43768</v>
+      </c>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C13" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="39">
+        <v>43767</v>
+      </c>
+      <c r="F13" s="43">
+        <v>43768</v>
+      </c>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="39">
+        <v>43768</v>
+      </c>
+      <c r="F14" s="43">
+        <v>43769</v>
+      </c>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="48"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="43"/>
+      <c r="A15" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="39">
+        <v>43773</v>
+      </c>
+      <c r="F15" s="43">
+        <v>43773</v>
+      </c>
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="19"/>
@@ -1793,9 +1913,406 @@
       <c r="F16" s="42"/>
       <c r="G16" s="19"/>
     </row>
+    <row r="17" spans="1:7" ht="46.5">
+      <c r="A17" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="39">
+        <v>43768</v>
+      </c>
+      <c r="F17" s="43">
+        <v>43467</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="46.5">
+      <c r="A18" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="39">
+        <v>43740</v>
+      </c>
+      <c r="F18" s="43">
+        <v>43741</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="39">
+        <v>43741</v>
+      </c>
+      <c r="F19" s="43">
+        <v>43742</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="67"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="39">
+        <v>43767</v>
+      </c>
+      <c r="F22" s="43">
+        <v>43767</v>
+      </c>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="1:7" ht="62">
+      <c r="A23" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="43">
+        <v>43767</v>
+      </c>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="39">
+        <v>43763</v>
+      </c>
+      <c r="F24" s="43">
+        <v>43767</v>
+      </c>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="43">
+        <v>43767</v>
+      </c>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="43">
+        <v>43767</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="70"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="40.58203125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="17" customWidth="1"/>
+    <col min="3" max="4" width="15.75" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="18.5">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1"/>
+    <row r="5" spans="1:7" ht="22.15" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="48"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="20"/>
+    </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="48" t="s">
-        <v>64</v>
+      <c r="A17" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="26" t="s">
@@ -1810,7 +2327,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="49" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="26" t="s">
@@ -1825,7 +2342,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="49" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="26" t="s">
@@ -1875,361 +2392,6 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="50"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A2:G29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="38.625" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="17" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1"/>
-    <row r="5" spans="1:7" ht="22.15" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="48"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="20"/>

--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F59AC9E-9D42-4095-A386-EE6674261665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58481C7-A9C4-483B-8098-A28E2B464374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Iteración" sheetId="1" r:id="rId1"/>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1482,7 +1482,9 @@
       <c r="F27" s="56">
         <v>43755</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="61">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="11"/>
@@ -2117,7 +2119,7 @@
   </sheetPr>
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58481C7-A9C4-483B-8098-A28E2B464374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0636D-D624-4264-A070-A3BCA64E0B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1483,7 +1483,7 @@
         <v>43755</v>
       </c>
       <c r="G27" s="61">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0636D-D624-4264-A070-A3BCA64E0B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D6651-750C-4E66-8C41-91D8CB4E391E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1144,8 +1144,8 @@
       <c r="C10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="58" t="s">
-        <v>73</v>
+      <c r="D10" s="53" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="55">
         <v>43752</v>
@@ -1153,7 +1153,9 @@
       <c r="F10" s="56">
         <v>43755</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="51" t="s">

--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D6651-750C-4E66-8C41-91D8CB4E391E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57639C-015B-4266-B4D3-3D786B2EE658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1485,7 +1485,7 @@
         <v>43755</v>
       </c>
       <c r="G27" s="61">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57639C-015B-4266-B4D3-3D786B2EE658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F07E03E-03AB-449F-AC18-E223EDB773A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1485,7 +1485,7 @@
         <v>43755</v>
       </c>
       <c r="G27" s="61">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F07E03E-03AB-449F-AC18-E223EDB773A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EC7DD-F9B2-4A97-AB20-530DDC2F174F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
   <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1475,8 +1475,8 @@
       <c r="C27" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="58" t="s">
-        <v>73</v>
+      <c r="D27" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="E27" s="55">
         <v>43752</v>
@@ -1484,9 +1484,7 @@
       <c r="F27" s="56">
         <v>43755</v>
       </c>
-      <c r="G27" s="61">
-        <v>0.85</v>
-      </c>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="11"/>

--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EC7DD-F9B2-4A97-AB20-530DDC2F174F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D51D7-44FD-48FB-A80B-DA813B7DFAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
   <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1419,7 +1419,9 @@
       <c r="F24" s="56">
         <v>43755</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="61">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="57" t="s">

--- a/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
+++ b/Documentación (Avances)/Primera Iteración/Plan de Control y Seguimiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert_ikoo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\GitHub\portafolio\Documentación (Avances)\Primera Iteración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A857F-B38B-4015-A4FD-FDC37039E4EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{D18A857F-B38B-4015-A4FD-FDC37039E4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5CD9A849-C010-4B15-A0BA-445531CA47A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Iteración" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="82">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -269,7 +269,10 @@
     <t>Roberto Gonzalez,Renzo Espeleta,Manuel Torres</t>
   </si>
   <si>
-    <t>Presentación</t>
+    <t>Sin Asignar</t>
+  </si>
+  <si>
+    <t>Matias Quezada</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -625,9 +628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,21 +1024,21 @@
   </sheetPr>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="38.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="17" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="15.69921875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="39.3984375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1"/>
-    <row r="5" spans="1:7" ht="22.15" customHeight="1">
+    <row r="5" spans="1:7" ht="22.2" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1147,13 +1147,13 @@
       <c r="D10" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="54">
         <v>43752</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>43755</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="60">
         <v>1</v>
       </c>
     </row>
@@ -1170,13 +1170,13 @@
       <c r="D11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="54">
         <v>43748</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="55">
         <v>43754</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="51" t="s">
@@ -1188,13 +1188,13 @@
       <c r="C12" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="55">
+      <c r="D12" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="54">
         <v>43759</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <v>43762</v>
       </c>
       <c r="G12" s="52"/>
@@ -1209,13 +1209,13 @@
       <c r="C13" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="55">
+      <c r="D13" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="54">
         <v>43759</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="55">
         <v>43763</v>
       </c>
       <c r="G13" s="52"/>
@@ -1230,13 +1230,13 @@
       <c r="C14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="55">
+      <c r="D14" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="54">
         <v>43752</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="55">
         <v>43755</v>
       </c>
       <c r="G14" s="52"/>
@@ -1272,8 +1272,8 @@
       <c r="C16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>73</v>
+      <c r="D16" s="53" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="39">
         <v>43752</v>
@@ -1314,7 +1314,7 @@
       <c r="C18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="39"/>
@@ -1380,7 +1380,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="52" t="s">
@@ -1389,19 +1389,19 @@
       <c r="C23" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="54">
         <v>43752</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="55">
         <v>43756</v>
       </c>
       <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="52" t="s">
@@ -1413,18 +1413,18 @@
       <c r="D24" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="54">
         <v>43752</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="55">
         <v>43755</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="52" t="s">
@@ -1433,21 +1433,21 @@
       <c r="C25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="54">
         <v>43752</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="55">
         <v>43758</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="60">
         <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="52" t="s">
@@ -1456,21 +1456,21 @@
       <c r="C26" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="54">
         <v>43752</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="55">
         <v>43758</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="60">
         <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="52" t="s">
@@ -1482,13 +1482,13 @@
       <c r="D27" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="54">
         <v>43752</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="55">
         <v>43755</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="11"/>
@@ -1510,7 +1510,7 @@
       <c r="F29" s="44"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" ht="31.5">
+    <row r="30" spans="1:7" ht="31.2">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
@@ -1533,8 +1533,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.5">
-      <c r="A31" s="60" t="s">
+    <row r="31" spans="1:7" ht="31.2">
+      <c r="A31" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="52" t="s">
@@ -1543,21 +1543,21 @@
       <c r="C31" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="54">
         <v>43722</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="55">
         <v>43768</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="60">
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.5">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:7" ht="31.2">
+      <c r="A32" s="59" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="52" t="s">
@@ -1566,21 +1566,21 @@
       <c r="C32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="54">
         <v>43722</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="55">
         <v>43768</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32" s="60">
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.5">
-      <c r="A33" s="60" t="s">
+    <row r="33" spans="1:7" ht="31.2">
+      <c r="A33" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -1589,20 +1589,20 @@
       <c r="C33" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="54">
         <v>43752</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="55">
         <v>43756</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="60">
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.5">
+    <row r="34" spans="1:7" ht="31.2">
       <c r="A34" s="14" t="s">
         <v>41</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="31.5">
+    <row r="35" spans="1:7" ht="31.2">
       <c r="A35" s="14" t="s">
         <v>42</v>
       </c>
@@ -1672,24 +1672,24 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A2:G27"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="38.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="17" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="15.69921875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="39.3984375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1697,8 +1697,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1"/>
-    <row r="5" spans="1:7" ht="22.15" customHeight="1">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1721,7 +1721,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="19"/>
@@ -1732,7 +1732,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="19"/>
@@ -1743,7 +1743,7 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -1755,16 +1755,12 @@
       <c r="D8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="39">
-        <v>43759</v>
-      </c>
-      <c r="F8" s="43">
-        <v>43764</v>
-      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -1776,20 +1772,16 @@
       <c r="D9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="39">
-        <v>43753</v>
-      </c>
-      <c r="F9" s="43">
-        <v>43764</v>
-      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>8</v>
@@ -1797,16 +1789,14 @@
       <c r="D10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="39">
-        <v>43757</v>
-      </c>
+      <c r="E10" s="39"/>
       <c r="F10" s="43">
-        <v>43765</v>
+        <v>43790</v>
       </c>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1818,37 +1808,29 @@
       <c r="D11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="39">
-        <v>43759</v>
-      </c>
+      <c r="E11" s="39"/>
       <c r="F11" s="43">
-        <v>43766</v>
+        <v>43790</v>
       </c>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="B12" s="20"/>
       <c r="C12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="39">
-        <v>43766</v>
-      </c>
-      <c r="F12" s="43">
-        <v>43768</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -1860,73 +1842,59 @@
       <c r="D13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="39">
-        <v>43767</v>
-      </c>
-      <c r="F13" s="43">
-        <v>43768</v>
-      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="39">
-        <v>43768</v>
-      </c>
-      <c r="F14" s="43">
-        <v>43769</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="39">
-        <v>43773</v>
-      </c>
-      <c r="F15" s="43">
-        <v>43773</v>
-      </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="66" t="s">
+      <c r="A15" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="47.25">
-      <c r="A17" s="62" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="62.4">
+      <c r="A16" s="61" t="s">
         <v>64</v>
       </c>
+      <c r="B16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="46.8">
+      <c r="A17" s="67" t="s">
+        <v>65</v>
+      </c>
       <c r="B17" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>8</v>
@@ -1934,20 +1902,16 @@
       <c r="D17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="39">
-        <v>43768</v>
-      </c>
-      <c r="F17" s="43">
-        <v>43467</v>
-      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" ht="47.25">
-      <c r="A18" s="68" t="s">
-        <v>65</v>
+    <row r="18" spans="1:7">
+      <c r="A18" s="67" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>8</v>
@@ -1955,83 +1919,71 @@
       <c r="D18" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="39">
-        <v>43740</v>
-      </c>
-      <c r="F18" s="43">
-        <v>43741</v>
-      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="39">
-        <v>43741</v>
-      </c>
-      <c r="F19" s="43">
-        <v>43742</v>
-      </c>
+      <c r="A19" s="66"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="67"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="20"/>
+      <c r="A20" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="69" t="s">
+      <c r="A21" s="68" t="s">
         <v>52</v>
       </c>
+      <c r="B21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7" ht="62.4">
+      <c r="A22" s="68" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="39">
-        <v>43767</v>
-      </c>
-      <c r="F22" s="43">
-        <v>43767</v>
-      </c>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:7" ht="63">
-      <c r="A23" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="C23" s="26" t="s">
         <v>8</v>
       </c>
@@ -2039,14 +1991,12 @@
         <v>10</v>
       </c>
       <c r="E23" s="39"/>
-      <c r="F23" s="43">
-        <v>43767</v>
-      </c>
+      <c r="F23" s="43"/>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="69" t="s">
-        <v>57</v>
+      <c r="A24" s="68" t="s">
+        <v>58</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>78</v>
@@ -2057,17 +2007,13 @@
       <c r="D24" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="39">
-        <v>43763</v>
-      </c>
-      <c r="F24" s="43">
-        <v>43767</v>
-      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="69" t="s">
-        <v>58</v>
+      <c r="A25" s="68" t="s">
+        <v>67</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>78</v>
@@ -2079,38 +2025,17 @@
         <v>10</v>
       </c>
       <c r="E25" s="39"/>
-      <c r="F25" s="43">
-        <v>43767</v>
-      </c>
+      <c r="F25" s="43"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="43">
-        <v>43767</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="70"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="32"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2125,21 +2050,21 @@
   </sheetPr>
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="40.625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="17" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.59765625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="15.69921875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="39.3984375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2073,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1"/>
-    <row r="5" spans="1:7" ht="22.15" customHeight="1">
+    <row r="5" spans="1:7" ht="22.2" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2272,7 +2197,9 @@
       <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C13" s="26" t="s">
         <v>8</v>
       </c>
@@ -2280,7 +2207,9 @@
         <v>10</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="43">
+        <v>43790</v>
+      </c>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
@@ -2337,7 +2266,9 @@
       <c r="A18" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C18" s="26" t="s">
         <v>8</v>
       </c>
@@ -2345,14 +2276,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="39"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="43">
+        <v>43790</v>
+      </c>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C19" s="26" t="s">
         <v>8</v>
       </c>
@@ -2360,7 +2295,9 @@
         <v>10</v>
       </c>
       <c r="E19" s="39"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="43">
+        <v>43790</v>
+      </c>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
